--- a/ConferenceList.xlsx
+++ b/ConferenceList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MISReadingList\AcademicCalendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MISReadingList\MIS-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDFB26D-9A1B-4628-A78B-16AA395798E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA291877-8749-478D-90F4-EF10A3905960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="350">
   <si>
     <t>Name</t>
   </si>
@@ -1050,6 +1050,33 @@
   </si>
   <si>
     <t>2022-04-25 23:59:59</t>
+  </si>
+  <si>
+    <t>Submission Open - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Submission Deadline - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Acceptance Notification - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Final Paper Deadline - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Final Acceptance Notification - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Doctoral Consortium - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Pre-Conference Workshops - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Post-Conference Workshops - ICIS 2023</t>
+  </si>
+  <si>
+    <t>Main Conference - ICIS 2023</t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2949,7 +2976,7 @@
     </row>
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>294</v>
@@ -2969,7 +2996,7 @@
     </row>
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>247</v>
@@ -2989,7 +3016,7 @@
     </row>
     <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>295</v>
@@ -3009,7 +3036,7 @@
     </row>
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>296</v>
@@ -3029,7 +3056,7 @@
     </row>
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>297</v>
@@ -3049,7 +3076,7 @@
     </row>
     <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>346</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>298</v>
@@ -3072,7 +3099,7 @@
     </row>
     <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>300</v>
@@ -3095,7 +3122,7 @@
     </row>
     <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>302</v>
@@ -3118,7 +3145,7 @@
     </row>
     <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>222</v>

--- a/ConferenceList.xlsx
+++ b/ConferenceList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MISReadingList\MIS-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA291877-8749-478D-90F4-EF10A3905960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E13FD00-D1FC-41E7-A27D-CCB5487D4B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,9 +980,6 @@
     <t>2023-05-28 00:00:00</t>
   </si>
   <si>
-    <t>2023-06-02 23:59:59</t>
-  </si>
-  <si>
     <t>2023-08-11 00:00:00</t>
   </si>
   <si>
@@ -1077,6 +1074,9 @@
   </si>
   <si>
     <t>Main Conference - ICIS 2023</t>
+  </si>
+  <si>
+    <t>2023-06-12 23:59:59</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2428,10 +2428,10 @@
         <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>77</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>294</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>247</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>295</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>296</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>297</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>298</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>300</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>302</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>222</v>
@@ -3848,7 +3848,7 @@
         <v>306</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>272</v>
@@ -3868,7 +3868,7 @@
         <v>307</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>272</v>
@@ -3888,7 +3888,7 @@
         <v>308</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>272</v>
@@ -3934,19 +3934,19 @@
         <v>302</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>180</v>
@@ -3957,7 +3957,7 @@
         <v>207</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>224</v>
@@ -3966,7 +3966,7 @@
         <v>220</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>181</v>
@@ -3977,7 +3977,7 @@
         <v>208</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>224</v>
@@ -3986,7 +3986,7 @@
         <v>220</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>183</v>
@@ -4000,7 +4000,7 @@
         <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>224</v>
@@ -4009,7 +4009,7 @@
         <v>220</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>180</v>
@@ -4029,7 +4029,7 @@
         <v>220</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>181</v>
@@ -4043,7 +4043,7 @@
         <v>302</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>224</v>
@@ -4052,7 +4052,7 @@
         <v>220</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>217</v>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="122" spans="1:8" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>113</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>113</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>113</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>113</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>113</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>113</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>113</v>
